--- a/source_plates/220629_source_plate2.xlsx
+++ b/source_plates/220629_source_plate2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Alba\Documents\GitHub\WHISPR\source_plates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dex36\Documents\GitHub\WHISPR\source_plates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93694CDD-823D-4044-A333-FFCE513EC70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78FD1D1-D1D2-4968-8B68-E2A2F0517DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16875" yWindow="2355" windowWidth="16455" windowHeight="13185" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="83">
   <si>
     <t>Plasmid</t>
   </si>
@@ -276,16 +276,10 @@
     <t>119.DA4_med</t>
   </si>
   <si>
-    <t>need to add 25</t>
-  </si>
-  <si>
     <t>pDA335_low</t>
   </si>
   <si>
     <t>D21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">need to add </t>
   </si>
 </sst>
 </file>
@@ -721,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -976,10 +970,7 @@
         <v>150</v>
       </c>
       <c r="E13" s="7">
-        <v>25</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -996,10 +987,7 @@
         <v>70</v>
       </c>
       <c r="E14" s="7">
-        <v>27.5</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -1478,19 +1466,16 @@
         <v>72</v>
       </c>
       <c r="B39" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="D39" s="9">
         <v>3</v>
       </c>
       <c r="E39" s="7">
         <v>50</v>
-      </c>
-      <c r="G39" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
